--- a/site/others/软件列表.xlsx
+++ b/site/others/软件列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57152852-2B87-47CB-9A4E-08D116CC70E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578050D7-50DA-4C46-8880-C89763B2923D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>BatteryInfoView</t>
   </si>
@@ -88,9 +88,6 @@
     <t>AIDA64</t>
   </si>
   <si>
-    <t>综合工具</t>
-  </si>
-  <si>
     <t>HWMonitor</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <t>RWEverything</t>
   </si>
   <si>
-    <t>图吧工具箱</t>
-  </si>
-  <si>
-    <t>CPU工具</t>
-  </si>
-  <si>
     <t>iva</t>
   </si>
   <si>
@@ -127,15 +118,9 @@
     <t>XIANGQI</t>
   </si>
   <si>
-    <t>显卡工具</t>
-  </si>
-  <si>
     <t>AMDGPUClockTool</t>
   </si>
   <si>
-    <t>AMD显卡驱动下载</t>
-  </si>
-  <si>
     <t>DDU</t>
   </si>
   <si>
@@ -148,21 +133,12 @@
     <t>nvidiaInspector</t>
   </si>
   <si>
-    <t>Nvidia显卡驱动下载</t>
-  </si>
-  <si>
-    <t>烤鸡工具</t>
-  </si>
-  <si>
     <t>FurMark</t>
   </si>
   <si>
     <t>OCCT</t>
   </si>
   <si>
-    <t>硬盘工具</t>
-  </si>
-  <si>
     <t>ASSSDBenchmark</t>
   </si>
   <si>
@@ -214,12 +190,6 @@
     <t>windirstat</t>
   </si>
   <si>
-    <t>魔方数据恢复</t>
-  </si>
-  <si>
-    <t>外设工具</t>
-  </si>
-  <si>
     <t>AresonMouseTest</t>
   </si>
   <si>
@@ -229,52 +199,293 @@
     <t>MOUSERATE</t>
   </si>
   <si>
-    <t>鼠标单机变双击测试器</t>
-  </si>
-  <si>
-    <t>屏幕测试</t>
-  </si>
-  <si>
-    <t>色域检测</t>
-  </si>
-  <si>
-    <t>内存工具</t>
-  </si>
-  <si>
-    <t>内存整理</t>
-  </si>
-  <si>
-    <t>魔方内存盘</t>
-  </si>
-  <si>
-    <t>游戏监测</t>
-  </si>
-  <si>
     <t>MSIAfterburner</t>
-  </si>
-  <si>
-    <t>游戏加加</t>
-  </si>
-  <si>
-    <t>其他工具</t>
-  </si>
-  <si>
-    <t>MicroKMS神龙版</t>
   </si>
   <si>
     <t>Prime95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏幕工具</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图吧工具箱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显卡工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AMD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显卡驱动下载</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nvidia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显卡驱动下载</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烤鸡工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬盘工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔方数据恢复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外设工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼠标单机变双击测试器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕工具</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕测试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色域检测</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存整理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔方内存盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏监测</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏加加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MicroKMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神龙版</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,16 +500,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,14 +551,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -611,434 +880,374 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A32:D32"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
